--- a/biology/Médecine/Breathing_Games/Breathing_Games.xlsx
+++ b/biology/Médecine/Breathing_Games/Breathing_Games.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Breathing Games est un communs de santé canadien en libre accès qui a pour but de promouvoir la santé respiratoire à travers des jeux (games for health) et du matériel libre diffusés sous licences copyleft[1],[2].
-Breathing Games a une culture de collaboration libre et de travail collaboratif[3],[4] afin de concevoir et développer des jeux éducatifs et thérapeutiques sur l'asthme[5], la mucoviscidose[6],[7] et d'autres maladies respiratoires chroniques[8].
-En 2017, Breathing Games [9] a obtenu des fonds des instituts de recherche en santé du Canada[10] et du fonds Recherche &amp; Innovation de la Fédération hospitalière de France, afin de poursuivre l'initiative.
+Breathing Games est un communs de santé canadien en libre accès qui a pour but de promouvoir la santé respiratoire à travers des jeux (games for health) et du matériel libre diffusés sous licences copyleft,.
+Breathing Games a une culture de collaboration libre et de travail collaboratif, afin de concevoir et développer des jeux éducatifs et thérapeutiques sur l'asthme, la mucoviscidose, et d'autres maladies respiratoires chroniques.
+En 2017, Breathing Games  a obtenu des fonds des instituts de recherche en santé du Canada et du fonds Recherche &amp; Innovation de la Fédération hospitalière de France, afin de poursuivre l'initiative.
 </t>
         </is>
       </c>
